--- a/Output/2023/116-17.18.3-1938-SG_STT_NSDSFND-1132.xlsx
+++ b/Output/2023/116-17.18.3-1938-SG_STT_NSDSFND-1132.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1815,6 +1815,27 @@
   </si>
   <si>
     <t xml:space="preserve">Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2237,7 @@
         <v>2022</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="H2" t="n">
         <v>2022</v>
@@ -2266,7 +2287,7 @@
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H3" t="n">
         <v>2022</v>
@@ -2316,7 +2337,7 @@
         <v>2022</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
         <v>2022</v>
@@ -2366,7 +2387,7 @@
         <v>2022</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
         <v>2022</v>
@@ -2416,7 +2437,7 @@
         <v>2022</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
@@ -2466,7 +2487,7 @@
         <v>2022</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
         <v>2022</v>
@@ -2516,7 +2537,7 @@
         <v>2022</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
@@ -2566,7 +2587,7 @@
         <v>2022</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
         <v>2022</v>
@@ -2616,7 +2637,7 @@
         <v>2022</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
@@ -2666,7 +2687,7 @@
         <v>2022</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
@@ -2716,7 +2737,7 @@
         <v>2022</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
@@ -2766,7 +2787,7 @@
         <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
@@ -2816,7 +2837,7 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
@@ -2866,7 +2887,7 @@
         <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
@@ -2916,7 +2937,7 @@
         <v>2022</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="H16" t="n">
         <v>2022</v>
@@ -2966,7 +2987,7 @@
         <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
@@ -3016,7 +3037,7 @@
         <v>2022</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
@@ -3066,7 +3087,7 @@
         <v>2022</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
@@ -3116,7 +3137,7 @@
         <v>2022</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
@@ -3166,7 +3187,7 @@
         <v>2022</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
@@ -3216,7 +3237,7 @@
         <v>2022</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>601</v>
       </c>
       <c r="H22" t="n">
         <v>2022</v>
@@ -3266,7 +3287,7 @@
         <v>2022</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
@@ -3316,7 +3337,7 @@
         <v>2022</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="H24" t="n">
         <v>2022</v>
@@ -3366,7 +3387,7 @@
         <v>2022</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>602</v>
       </c>
       <c r="H25" t="n">
         <v>2022</v>
@@ -3416,7 +3437,7 @@
         <v>2022</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H26" t="n">
         <v>2022</v>
@@ -3466,7 +3487,7 @@
         <v>2022</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="H27" t="n">
         <v>2022</v>
@@ -3516,7 +3537,7 @@
         <v>2022</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H28" t="n">
         <v>2022</v>
@@ -3566,7 +3587,7 @@
         <v>2022</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H29" t="n">
         <v>2022</v>
@@ -3616,7 +3637,7 @@
         <v>2022</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
@@ -3666,7 +3687,7 @@
         <v>2022</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
@@ -3716,7 +3737,7 @@
         <v>2022</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H32" t="n">
         <v>2022</v>
@@ -3766,7 +3787,7 @@
         <v>2022</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>603</v>
       </c>
       <c r="H33" t="n">
         <v>2022</v>
@@ -3816,7 +3837,7 @@
         <v>2022</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
@@ -3866,7 +3887,7 @@
         <v>2022</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H35" t="n">
         <v>2022</v>
@@ -3916,7 +3937,7 @@
         <v>2022</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>604</v>
       </c>
       <c r="H36" t="n">
         <v>2022</v>
@@ -3966,7 +3987,7 @@
         <v>2022</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="H37" t="n">
         <v>2022</v>
@@ -4316,7 +4337,7 @@
         <v>2022</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H44" t="n">
         <v>2022</v>
@@ -10216,7 +10237,7 @@
         <v>2022</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H162" t="n">
         <v>2022</v>
@@ -16366,7 +16387,7 @@
         <v>2021</v>
       </c>
       <c r="G285" t="s">
-        <v>32</v>
+        <v>605</v>
       </c>
       <c r="H285" t="n">
         <v>2021</v>
@@ -16416,7 +16437,7 @@
         <v>2021</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H286" t="n">
         <v>2021</v>
@@ -16466,7 +16487,7 @@
         <v>2021</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H287" t="n">
         <v>2021</v>
@@ -16516,7 +16537,7 @@
         <v>2021</v>
       </c>
       <c r="G288" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H288" t="n">
         <v>2021</v>
@@ -16566,7 +16587,7 @@
         <v>2021</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H289" t="n">
         <v>2021</v>
@@ -16616,7 +16637,7 @@
         <v>2021</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H290" t="n">
         <v>2021</v>
@@ -16666,7 +16687,7 @@
         <v>2021</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H291" t="n">
         <v>2021</v>
@@ -16716,7 +16737,7 @@
         <v>2021</v>
       </c>
       <c r="G292" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H292" t="n">
         <v>2021</v>
@@ -16766,7 +16787,7 @@
         <v>2021</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H293" t="n">
         <v>2021</v>
@@ -16816,7 +16837,7 @@
         <v>2021</v>
       </c>
       <c r="G294" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H294" t="n">
         <v>2021</v>
@@ -16866,7 +16887,7 @@
         <v>2021</v>
       </c>
       <c r="G295" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H295" t="n">
         <v>2021</v>
@@ -16916,7 +16937,7 @@
         <v>2021</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H296" t="n">
         <v>2021</v>
@@ -16966,7 +16987,7 @@
         <v>2021</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H297" t="n">
         <v>2021</v>
@@ -17016,7 +17037,7 @@
         <v>2021</v>
       </c>
       <c r="G298" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H298" t="n">
         <v>2021</v>
@@ -17066,7 +17087,7 @@
         <v>2021</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H299" t="n">
         <v>2021</v>
@@ -17116,7 +17137,7 @@
         <v>2021</v>
       </c>
       <c r="G300" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H300" t="n">
         <v>2021</v>
@@ -17166,7 +17187,7 @@
         <v>2021</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H301" t="n">
         <v>2021</v>
@@ -17216,7 +17237,7 @@
         <v>2021</v>
       </c>
       <c r="G302" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H302" t="n">
         <v>2021</v>
@@ -17266,7 +17287,7 @@
         <v>2021</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H303" t="n">
         <v>2021</v>
@@ -17316,7 +17337,7 @@
         <v>2021</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H304" t="n">
         <v>2021</v>
@@ -17366,7 +17387,7 @@
         <v>2021</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="H305" t="n">
         <v>2021</v>
@@ -17416,7 +17437,7 @@
         <v>2021</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H306" t="n">
         <v>2021</v>
@@ -17466,7 +17487,7 @@
         <v>2021</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H307" t="n">
         <v>2021</v>
@@ -17516,7 +17537,7 @@
         <v>2021</v>
       </c>
       <c r="G308" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="H308" t="n">
         <v>2021</v>
@@ -17566,7 +17587,7 @@
         <v>2021</v>
       </c>
       <c r="G309" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H309" t="n">
         <v>2021</v>
@@ -17616,7 +17637,7 @@
         <v>2021</v>
       </c>
       <c r="G310" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H310" t="n">
         <v>2021</v>
@@ -17666,7 +17687,7 @@
         <v>2021</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H311" t="n">
         <v>2021</v>
@@ -17716,7 +17737,7 @@
         <v>2021</v>
       </c>
       <c r="G312" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H312" t="n">
         <v>2021</v>
@@ -17766,7 +17787,7 @@
         <v>2021</v>
       </c>
       <c r="G313" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H313" t="n">
         <v>2021</v>
@@ -17816,7 +17837,7 @@
         <v>2021</v>
       </c>
       <c r="G314" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H314" t="n">
         <v>2021</v>
@@ -17866,7 +17887,7 @@
         <v>2021</v>
       </c>
       <c r="G315" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H315" t="n">
         <v>2021</v>
@@ -17916,7 +17937,7 @@
         <v>2021</v>
       </c>
       <c r="G316" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="H316" t="n">
         <v>2021</v>
@@ -17966,7 +17987,7 @@
         <v>2021</v>
       </c>
       <c r="G317" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H317" t="n">
         <v>2021</v>
@@ -18016,7 +18037,7 @@
         <v>2021</v>
       </c>
       <c r="G318" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H318" t="n">
         <v>2021</v>
@@ -18066,7 +18087,7 @@
         <v>2021</v>
       </c>
       <c r="G319" t="s">
-        <v>32</v>
+        <v>508</v>
       </c>
       <c r="H319" t="n">
         <v>2021</v>
@@ -18116,7 +18137,7 @@
         <v>2021</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H320" t="n">
         <v>2021</v>
@@ -18466,7 +18487,7 @@
         <v>2021</v>
       </c>
       <c r="G327" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H327" t="n">
         <v>2021</v>
@@ -23816,7 +23837,7 @@
         <v>2021</v>
       </c>
       <c r="G434" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H434" t="n">
         <v>2021</v>
@@ -24366,7 +24387,7 @@
         <v>2021</v>
       </c>
       <c r="G445" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H445" t="n">
         <v>2021</v>
@@ -30516,7 +30537,7 @@
         <v>2020</v>
       </c>
       <c r="G568" t="s">
-        <v>32</v>
+        <v>605</v>
       </c>
       <c r="H568" t="n">
         <v>2020</v>
@@ -30566,7 +30587,7 @@
         <v>2020</v>
       </c>
       <c r="G569" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H569" t="n">
         <v>2020</v>
@@ -30616,7 +30637,7 @@
         <v>2020</v>
       </c>
       <c r="G570" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H570" t="n">
         <v>2020</v>
@@ -30666,7 +30687,7 @@
         <v>2020</v>
       </c>
       <c r="G571" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H571" t="n">
         <v>2020</v>
@@ -30716,7 +30737,7 @@
         <v>2020</v>
       </c>
       <c r="G572" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H572" t="n">
         <v>2020</v>
@@ -30766,7 +30787,7 @@
         <v>2020</v>
       </c>
       <c r="G573" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H573" t="n">
         <v>2020</v>
@@ -30816,7 +30837,7 @@
         <v>2020</v>
       </c>
       <c r="G574" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H574" t="n">
         <v>2020</v>
@@ -30866,7 +30887,7 @@
         <v>2020</v>
       </c>
       <c r="G575" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H575" t="n">
         <v>2020</v>
@@ -30916,7 +30937,7 @@
         <v>2020</v>
       </c>
       <c r="G576" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H576" t="n">
         <v>2020</v>
@@ -30966,7 +30987,7 @@
         <v>2020</v>
       </c>
       <c r="G577" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H577" t="n">
         <v>2020</v>
@@ -31016,7 +31037,7 @@
         <v>2020</v>
       </c>
       <c r="G578" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H578" t="n">
         <v>2020</v>
@@ -31066,7 +31087,7 @@
         <v>2020</v>
       </c>
       <c r="G579" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H579" t="n">
         <v>2020</v>
@@ -31116,7 +31137,7 @@
         <v>2020</v>
       </c>
       <c r="G580" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H580" t="n">
         <v>2020</v>
@@ -31166,7 +31187,7 @@
         <v>2020</v>
       </c>
       <c r="G581" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H581" t="n">
         <v>2020</v>
@@ -31216,7 +31237,7 @@
         <v>2020</v>
       </c>
       <c r="G582" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H582" t="n">
         <v>2020</v>
@@ -31266,7 +31287,7 @@
         <v>2020</v>
       </c>
       <c r="G583" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H583" t="n">
         <v>2020</v>
@@ -31316,7 +31337,7 @@
         <v>2020</v>
       </c>
       <c r="G584" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H584" t="n">
         <v>2020</v>
@@ -31366,7 +31387,7 @@
         <v>2020</v>
       </c>
       <c r="G585" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H585" t="n">
         <v>2020</v>
@@ -31416,7 +31437,7 @@
         <v>2020</v>
       </c>
       <c r="G586" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H586" t="n">
         <v>2020</v>
@@ -31466,7 +31487,7 @@
         <v>2020</v>
       </c>
       <c r="G587" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H587" t="n">
         <v>2020</v>
@@ -31516,7 +31537,7 @@
         <v>2020</v>
       </c>
       <c r="G588" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="H588" t="n">
         <v>2020</v>
@@ -31566,7 +31587,7 @@
         <v>2020</v>
       </c>
       <c r="G589" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H589" t="n">
         <v>2020</v>
@@ -31616,7 +31637,7 @@
         <v>2020</v>
       </c>
       <c r="G590" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H590" t="n">
         <v>2020</v>
@@ -31666,7 +31687,7 @@
         <v>2020</v>
       </c>
       <c r="G591" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="H591" t="n">
         <v>2020</v>
@@ -31716,7 +31737,7 @@
         <v>2020</v>
       </c>
       <c r="G592" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H592" t="n">
         <v>2020</v>
@@ -31766,7 +31787,7 @@
         <v>2020</v>
       </c>
       <c r="G593" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H593" t="n">
         <v>2020</v>
@@ -31816,7 +31837,7 @@
         <v>2020</v>
       </c>
       <c r="G594" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H594" t="n">
         <v>2020</v>
@@ -31866,7 +31887,7 @@
         <v>2020</v>
       </c>
       <c r="G595" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H595" t="n">
         <v>2020</v>
@@ -31916,7 +31937,7 @@
         <v>2020</v>
       </c>
       <c r="G596" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H596" t="n">
         <v>2020</v>
@@ -31966,7 +31987,7 @@
         <v>2020</v>
       </c>
       <c r="G597" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H597" t="n">
         <v>2020</v>
@@ -32016,7 +32037,7 @@
         <v>2020</v>
       </c>
       <c r="G598" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H598" t="n">
         <v>2020</v>
@@ -32066,7 +32087,7 @@
         <v>2020</v>
       </c>
       <c r="G599" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="H599" t="n">
         <v>2020</v>
@@ -32116,7 +32137,7 @@
         <v>2020</v>
       </c>
       <c r="G600" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H600" t="n">
         <v>2020</v>
@@ -32166,7 +32187,7 @@
         <v>2020</v>
       </c>
       <c r="G601" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H601" t="n">
         <v>2020</v>
@@ -32216,7 +32237,7 @@
         <v>2020</v>
       </c>
       <c r="G602" t="s">
-        <v>32</v>
+        <v>508</v>
       </c>
       <c r="H602" t="n">
         <v>2020</v>
@@ -32266,7 +32287,7 @@
         <v>2020</v>
       </c>
       <c r="G603" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H603" t="n">
         <v>2020</v>
@@ -32616,7 +32637,7 @@
         <v>2020</v>
       </c>
       <c r="G610" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H610" t="n">
         <v>2020</v>
@@ -37966,7 +37987,7 @@
         <v>2020</v>
       </c>
       <c r="G717" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H717" t="n">
         <v>2020</v>
@@ -38516,7 +38537,7 @@
         <v>2020</v>
       </c>
       <c r="G728" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H728" t="n">
         <v>2020</v>
@@ -44666,7 +44687,7 @@
         <v>2019</v>
       </c>
       <c r="G851" t="s">
-        <v>32</v>
+        <v>606</v>
       </c>
       <c r="H851" t="n">
         <v>2019</v>
@@ -44716,7 +44737,7 @@
         <v>2019</v>
       </c>
       <c r="G852" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H852" t="n">
         <v>2019</v>
@@ -44766,7 +44787,7 @@
         <v>2019</v>
       </c>
       <c r="G853" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H853" t="n">
         <v>2019</v>
@@ -44816,7 +44837,7 @@
         <v>2019</v>
       </c>
       <c r="G854" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H854" t="n">
         <v>2019</v>
@@ -44866,7 +44887,7 @@
         <v>2019</v>
       </c>
       <c r="G855" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H855" t="n">
         <v>2019</v>
@@ -44916,7 +44937,7 @@
         <v>2019</v>
       </c>
       <c r="G856" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H856" t="n">
         <v>2019</v>
@@ -44966,7 +44987,7 @@
         <v>2019</v>
       </c>
       <c r="G857" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H857" t="n">
         <v>2019</v>
@@ -45016,7 +45037,7 @@
         <v>2019</v>
       </c>
       <c r="G858" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H858" t="n">
         <v>2019</v>
@@ -45066,7 +45087,7 @@
         <v>2019</v>
       </c>
       <c r="G859" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H859" t="n">
         <v>2019</v>
@@ -45116,7 +45137,7 @@
         <v>2019</v>
       </c>
       <c r="G860" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H860" t="n">
         <v>2019</v>
@@ -45166,7 +45187,7 @@
         <v>2019</v>
       </c>
       <c r="G861" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H861" t="n">
         <v>2019</v>
@@ -45216,7 +45237,7 @@
         <v>2019</v>
       </c>
       <c r="G862" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H862" t="n">
         <v>2019</v>
@@ -45266,7 +45287,7 @@
         <v>2019</v>
       </c>
       <c r="G863" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H863" t="n">
         <v>2019</v>
@@ -45316,7 +45337,7 @@
         <v>2019</v>
       </c>
       <c r="G864" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H864" t="n">
         <v>2019</v>
@@ -45366,7 +45387,7 @@
         <v>2019</v>
       </c>
       <c r="G865" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H865" t="n">
         <v>2019</v>
@@ -45416,7 +45437,7 @@
         <v>2019</v>
       </c>
       <c r="G866" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H866" t="n">
         <v>2019</v>
@@ -45466,7 +45487,7 @@
         <v>2019</v>
       </c>
       <c r="G867" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H867" t="n">
         <v>2019</v>
@@ -45516,7 +45537,7 @@
         <v>2019</v>
       </c>
       <c r="G868" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H868" t="n">
         <v>2019</v>
@@ -45566,7 +45587,7 @@
         <v>2019</v>
       </c>
       <c r="G869" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H869" t="n">
         <v>2019</v>
@@ -45616,7 +45637,7 @@
         <v>2019</v>
       </c>
       <c r="G870" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H870" t="n">
         <v>2019</v>
@@ -45666,7 +45687,7 @@
         <v>2019</v>
       </c>
       <c r="G871" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="H871" t="n">
         <v>2019</v>
@@ -45716,7 +45737,7 @@
         <v>2019</v>
       </c>
       <c r="G872" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H872" t="n">
         <v>2019</v>
@@ -45766,7 +45787,7 @@
         <v>2019</v>
       </c>
       <c r="G873" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H873" t="n">
         <v>2019</v>
@@ -45816,7 +45837,7 @@
         <v>2019</v>
       </c>
       <c r="G874" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="H874" t="n">
         <v>2019</v>
@@ -45866,7 +45887,7 @@
         <v>2019</v>
       </c>
       <c r="G875" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H875" t="n">
         <v>2019</v>
@@ -45916,7 +45937,7 @@
         <v>2019</v>
       </c>
       <c r="G876" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H876" t="n">
         <v>2019</v>
@@ -45966,7 +45987,7 @@
         <v>2019</v>
       </c>
       <c r="G877" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H877" t="n">
         <v>2019</v>
@@ -46016,7 +46037,7 @@
         <v>2019</v>
       </c>
       <c r="G878" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H878" t="n">
         <v>2019</v>
@@ -46066,7 +46087,7 @@
         <v>2019</v>
       </c>
       <c r="G879" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H879" t="n">
         <v>2019</v>
@@ -46116,7 +46137,7 @@
         <v>2019</v>
       </c>
       <c r="G880" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="H880" t="n">
         <v>2019</v>
@@ -46166,7 +46187,7 @@
         <v>2019</v>
       </c>
       <c r="G881" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H881" t="n">
         <v>2019</v>
@@ -46216,7 +46237,7 @@
         <v>2019</v>
       </c>
       <c r="G882" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="H882" t="n">
         <v>2019</v>
@@ -46266,7 +46287,7 @@
         <v>2019</v>
       </c>
       <c r="G883" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H883" t="n">
         <v>2019</v>
@@ -46316,7 +46337,7 @@
         <v>2019</v>
       </c>
       <c r="G884" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="H884" t="n">
         <v>2019</v>
@@ -46366,7 +46387,7 @@
         <v>2019</v>
       </c>
       <c r="G885" t="s">
-        <v>32</v>
+        <v>508</v>
       </c>
       <c r="H885" t="n">
         <v>2019</v>
@@ -46416,7 +46437,7 @@
         <v>2019</v>
       </c>
       <c r="G886" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H886" t="n">
         <v>2019</v>
@@ -52116,7 +52137,7 @@
         <v>2019</v>
       </c>
       <c r="G1000" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H1000" t="n">
         <v>2019</v>
@@ -52666,7 +52687,7 @@
         <v>2019</v>
       </c>
       <c r="G1011" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H1011" t="n">
         <v>2019</v>
@@ -54716,7 +54737,7 @@
         <v>2019</v>
       </c>
       <c r="G1052" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H1052" t="n">
         <v>2019</v>
